--- a/resources/Database.xlsx
+++ b/resources/Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaochengyi/Documents/Study/studyByCode/anki卡包/buildAnki/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4D41685E-0134-FC43-ACE6-42BB0BB86102}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4E711018-0356-F74E-AE8F-BB688E229947}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11020" yWindow="0" windowWidth="22580" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="anki" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="235" uniqueCount="187">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="236" uniqueCount="188">
   <si>
     <t>UDP</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -591,22 +591,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>原子性：事务的全部操作要么全部执行，要么全部不执行</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>一致性：并行事务必须与某一串行执行事务的结果相同。理想中的一致性，需要将所有的事务，顺序执行，但是会有很大的性能损失。所以，一般会用不同的隔离级别来平衡一致性与效率。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>隔离性：事务执行，不受其它事务的干扰，事务执行的中间结果必须对其它事务透明</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>持久性：已经提交的事务，数据库必须保证变更不被丢失</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>事务的隔离级别</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -619,34 +603,14 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>可串行化：不会出现脏读、不可重复读、幻读</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>可重复读 level3：不会读到其它事务更新的数据，但是会读到新插入的数据——幻读</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>聚簇索引：将数据存储与索引放到了一块，找到索引也就找到了数据</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>应使用聚簇索引的情况</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>一个表只有一个聚簇索引，默认使用主键</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚簇索引和辅助索引的区别</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>InnoDB使用的是聚簇表结构，myisam 使用的是非聚簇表结构，myisam 中的索引全部保存数据的行地址</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>辅助索引：索引与数据分开，叶子结构指向数据的主键。辅助索引查完后，需要去聚簇索引查询获取真实数据。</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -655,14 +619,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>聚簇索引适合用在排序场合</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以把相关数据保存在一起，比如某些数据，如果用用户 id 作为聚簇索引，那么查询用户时就只需要读取少量数据页就能读取全部数据</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>聚簇索引的优势</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -671,15 +627,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>维护索引昂贵，特别是插入新行导致要分页时。可以执行定时任务，在系统低负荷时，执行 optimize table 命令</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>uuid 做主键，导致插入数据时容易引发数据移动，导致分页。最好使用自增 id，自增 id 是顺序插入数据</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键比较大，则辅助索引会更大，uuid 更占空间</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -763,7 +711,63 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>数据库高并发的解决方案</t>
+    <t>原子性-1：事务的全部操作要么全部执行，要么全部不执行</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一致性-2：并行事务必须与某一串行执行事务的结果相同。理想中的一致性，需要将所有的事务，顺序执行，但是会有很大的性能损失。所以，一般会用不同的隔离级别来平衡一致性与效率。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔离性-3：事务执行，不受其它事务的干扰，事务执行的中间结果必须对其它事务透明</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>持久性-4：已经提交的事务，数据库必须保证变更不被丢失</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>串行化：不会出现脏读、不可重复读、幻读</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚簇索引、非聚簇索引和辅助索引的区别</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>非聚簇索引：数据与索引分开，索引的叶子节点中保存的是数据的地址，myisam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>本质区别是，聚簇索引中数据是按照索引字段排序的，非聚簇索引不是</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B树和 B+树的区别</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B 树在单一查询时，效率更高，但是不适合做遍历操作。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B+树叶子节点用指针相连，做数据遍历很方便。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B树中每个节点都保存有数据，每个叶子节点间无指针相邻。Mongodb 使用 B 树做索引，因为它是文档型，理想的使用方式是 key + 文档，多表关联的情况比较少，如果多的话应该考虑用 mysql。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B+树，所有数据只存放在叶子节点，每个叶子节点都有链指针，指向下一个节点。MySQL 使用 B+树，因为mysql 是关系型数据库，多表关联多。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚簇索引：将数据存储与索引放到了一块，找到索引也就找到了数据。一个表只有一个聚簇索引，默认使用主键</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引与数据存放地址相同，读取到索引，即读取到数据地址，不需要再用数据文件中取数据。速度比非聚簇索引快。</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1733,8 +1737,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2440,7 +2444,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="34">
+    <row r="33" spans="1:8" ht="17">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2474,39 +2478,39 @@
         <v>142</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="68">
+    <row r="35" spans="1:8" ht="34">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>41</v>
@@ -2517,16 +2521,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="17">
@@ -2534,143 +2544,158 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="85">
+    <row r="38" spans="1:8" ht="51">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="51">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="34">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="68">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="17">
-      <c r="B40" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="119">
-      <c r="B41" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="68">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
       <c r="B42" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="102">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
       <c r="B43" s="2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="34">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
       <c r="B44" s="2" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17">
+    <row r="45" spans="1:8" ht="68">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
       <c r="B45" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
